--- a/Parts/BOM_Arduino_Spot_Welder_V2.1.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V2.1.xlsx
@@ -94,9 +94,6 @@
     <t>https://www.reichelt.de/IC-Sockel/GS-8/3/index.html?ACTION=3&amp;GROUPID=3215&amp;ARTICLE=8230&amp;START=0&amp;OFFSET=1000&amp;</t>
   </si>
   <si>
-    <t>https://www.reichelt.de/Scheiben/KERKO-100P/3/index.html?ACTION=3&amp;GROUPID=3169&amp;ARTICLE=9266&amp;START=0&amp;OFFSET=1000&amp;</t>
-  </si>
-  <si>
     <t>Arduino Nano</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>https://www.reichelt.de/SB-SKE-4F-Dioden/SS-16/3/index.html?ACTION=3&amp;GROUPID=2991&amp;ARTICLE=146605&amp;OFFSET=75&amp;</t>
   </si>
   <si>
-    <t xml:space="preserve">ceramic capacitor 100pF SMD </t>
-  </si>
-  <si>
     <t>X7R 1210 CG 100N</t>
   </si>
   <si>
@@ -248,6 +242,12 @@
   </si>
   <si>
     <t>from malectrics.com</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/Vielschicht-SMD-G1210/X7R-1210-CG-100N/3/index.html?ACTION=3&amp;GROUPID=3167&amp;ARTICLE=194483&amp;OFFSET=1000&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceramic capacitor 100nF SMD </t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,10 +1047,10 @@
   <sheetData>
     <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>8</v>
@@ -1110,7 +1110,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1140,14 +1140,14 @@
         <v>12</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12">
         <v>0.84</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,17 +1229,17 @@
         <v>1</v>
       </c>
       <c r="D13" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12">
         <v>0.08</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1247,17 +1247,17 @@
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12">
         <v>0.45</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1265,17 +1265,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="F16" s="12">
         <v>0.02</v>
@@ -1295,7 +1295,7 @@
         <v>0.04</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1303,10 +1303,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F17" s="11">
         <v>0.02</v>
@@ -1315,7 +1315,7 @@
         <v>0.04</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1323,10 +1323,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="F18" s="11">
         <v>0.02</v>
@@ -1335,7 +1335,7 @@
         <v>0.16</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1343,17 +1343,17 @@
         <v>1</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="31">
         <v>0.08</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="35"/>
@@ -1379,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,17 +1387,17 @@
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="51" t="s">
         <v>68</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>69</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="13">
         <v>2</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -1413,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1421,17 +1421,17 @@
         <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="13">
         <v>1</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11">
@@ -1449,7 +1449,7 @@
         <v>1.8</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,17 +1457,17 @@
         <v>1</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10">
         <v>1.95</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,17 +1475,17 @@
         <v>1</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="48">
         <v>5.8</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,17 +1493,17 @@
         <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="10">
         <v>4.57</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1511,24 +1511,24 @@
         <v>1</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="44">
         <v>2.0099999999999998</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="5:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" s="6">
         <f>SUM(G5:G32)</f>
@@ -1546,16 +1546,15 @@
     <hyperlink ref="H10" r:id="rId5"/>
     <hyperlink ref="H12" r:id="rId6"/>
     <hyperlink ref="H11" r:id="rId7"/>
-    <hyperlink ref="H15" r:id="rId8"/>
-    <hyperlink ref="H2" r:id="rId9"/>
-    <hyperlink ref="H6" r:id="rId10"/>
-    <hyperlink ref="H17" r:id="rId11"/>
-    <hyperlink ref="H29" r:id="rId12"/>
-    <hyperlink ref="H30" r:id="rId13"/>
-    <hyperlink ref="E23" r:id="rId14"/>
-    <hyperlink ref="H28" r:id="rId15"/>
+    <hyperlink ref="H2" r:id="rId8"/>
+    <hyperlink ref="H6" r:id="rId9"/>
+    <hyperlink ref="H17" r:id="rId10"/>
+    <hyperlink ref="H29" r:id="rId11"/>
+    <hyperlink ref="H30" r:id="rId12"/>
+    <hyperlink ref="E23" r:id="rId13"/>
+    <hyperlink ref="H28" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Parts/BOM_Arduino_Spot_Welder_V2.1.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V2.1.xlsx
@@ -145,12 +145,6 @@
     <t>https://www.reichelt.de/ICs-MCP-1-2-/MCP-1407-E-P/3/index.html?ACTION=3&amp;GROUPID=5471&amp;ARTICLE=90039&amp;OFFSET=75&amp;</t>
   </si>
   <si>
-    <t>film capacitor 1 µF</t>
-  </si>
-  <si>
-    <t>https://www.reichelt.de/MKS-02/MKS-02-1-0-/3/index.html?ACTION=3&amp;GROUPID=7168&amp;ARTICLE=12312&amp;OFFSET=1000&amp;</t>
-  </si>
-  <si>
     <t>Resistor 1206 SMD  220 Ohm</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>https://www.reichelt.de/SMD-LEDs-Standard/LED-EL-1206-GR1/3/index.html?ACTION=3&amp;GROUPID=3035&amp;ARTICLE=156247&amp;OFFSET=1000&amp;</t>
   </si>
   <si>
-    <t>MKS-02 1,0µ</t>
-  </si>
-  <si>
     <t>e.g. old car starter cable or https://www.schweisshelden.de/schweisskabel-h01n2-d-16-mm2-48129</t>
   </si>
   <si>
@@ -248,6 +239,15 @@
   </si>
   <si>
     <t xml:space="preserve">ceramic capacitor 100nF SMD </t>
+  </si>
+  <si>
+    <t>film capacitor 1,5 µF RM5</t>
+  </si>
+  <si>
+    <t>MKS2-63 1,5µ</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/MKS-2/MKS2-63-1-5-/3/index.html?ACTION=3&amp;GROUPID=7169&amp;ARTICLE=12348&amp;OFFSET=75&amp;</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -615,9 +615,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1032,7 +1029,7 @@
   <dimension ref="B2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,48 +1052,48 @@
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>8</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>1.2</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>9.6</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -1109,13 +1106,13 @@
       <c r="G6" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1128,12 +1125,12 @@
       <c r="G7" s="12">
         <v>0.76</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1146,12 +1143,12 @@
       <c r="G8" s="12">
         <v>0.84</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>3</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -1166,12 +1163,12 @@
       <c r="G9" s="12">
         <v>0.81</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1184,12 +1181,12 @@
       <c r="G10" s="12">
         <v>0.17</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>1</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -1202,12 +1199,12 @@
       <c r="G11" s="12">
         <v>0.26</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>1</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -1220,73 +1217,73 @@
       <c r="G12" s="12">
         <v>0.04</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="24">
-        <v>1</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>69</v>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>66</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12">
         <v>0.08</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>71</v>
+      <c r="H13" s="24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>57</v>
+        <v>75</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12">
-        <v>0.45</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>44</v>
+        <v>0.32</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>76</v>
+      <c r="H15" s="24" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>2</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" s="12">
         <v>0.02</v>
@@ -1294,19 +1291,19 @@
       <c r="G16" s="12">
         <v>0.04</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="23">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="24">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="F17" s="11">
         <v>0.02</v>
@@ -1314,19 +1311,19 @@
       <c r="G17" s="12">
         <v>0.04</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="23">
+        <v>8</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="24">
-        <v>8</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="F18" s="11">
         <v>0.02</v>
@@ -1334,26 +1331,26 @@
       <c r="G18" s="12">
         <v>0.16</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="26">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="27">
-        <v>1</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="H19" s="31" t="s">
         <v>54</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31">
-        <v>0.08</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1367,61 +1364,61 @@
       </c>
     </row>
     <row r="22" spans="3:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="33">
-        <v>1</v>
-      </c>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="32">
+        <v>1</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36">
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35">
         <v>2</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>65</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="13">
         <v>2</v>
       </c>
-      <c r="H23" s="39" t="s">
-        <v>73</v>
+      <c r="H23" s="38" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>1</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="13">
         <v>3</v>
       </c>
-      <c r="H24" s="39" t="s">
-        <v>58</v>
+      <c r="H24" s="38" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>29</v>
@@ -1430,16 +1427,16 @@
       <c r="G25" s="13">
         <v>1</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11">
@@ -1448,12 +1445,12 @@
       <c r="G26" s="12">
         <v>1.8</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="40">
+      <c r="C27" s="39">
         <v>1</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -1466,62 +1463,62 @@
       <c r="G27" s="10">
         <v>1.95</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="45">
-        <v>1</v>
-      </c>
-      <c r="D28" s="46" t="s">
+      <c r="C28" s="44">
+        <v>1</v>
+      </c>
+      <c r="D28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48">
+      <c r="E28" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47">
         <v>5.8</v>
       </c>
-      <c r="H28" s="52" t="s">
-        <v>74</v>
+      <c r="H28" s="51" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="40">
+      <c r="C29" s="39">
         <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="10">
         <v>4.57</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="41">
+        <v>1</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="43">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H30" s="49" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="42">
-        <v>1</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="44">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1529,7 @@
       </c>
       <c r="G33" s="6">
         <f>SUM(G5:G32)</f>
-        <v>38.629999999999995</v>
+        <v>38.499999999999993</v>
       </c>
     </row>
     <row r="34" spans="5:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1553,8 +1550,9 @@
     <hyperlink ref="H30" r:id="rId12"/>
     <hyperlink ref="E23" r:id="rId13"/>
     <hyperlink ref="H28" r:id="rId14"/>
+    <hyperlink ref="H14" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Parts/BOM_Arduino_Spot_Welder_V2.1.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V2.1.xlsx
@@ -40,9 +40,6 @@
     <t>Reichelt.de Link</t>
   </si>
   <si>
-    <t>MCP 14E10-E/P</t>
-  </si>
-  <si>
     <t>Poti 6mm Linear 50K</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>https://www.reichelt.de/MKS-2/MKS2-63-1-5-/3/index.html?ACTION=3&amp;GROUPID=7169&amp;ARTICLE=12348&amp;OFFSET=75&amp;</t>
+  </si>
+  <si>
+    <t>MCP 1407-E/P</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,10 +1044,10 @@
   <sheetData>
     <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>2</v>
@@ -1097,17 +1097,17 @@
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12">
         <v>1.1000000000000001</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1116,17 +1116,17 @@
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12">
         <v>0.76</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1134,17 +1134,17 @@
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12">
         <v>0.84</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1152,10 +1152,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="F9" s="12">
         <v>0.27</v>
@@ -1164,7 +1164,7 @@
         <v>0.81</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1172,17 +1172,17 @@
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12">
         <v>0.17</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1190,17 +1190,17 @@
         <v>1</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12">
         <v>0.26</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1208,17 +1208,17 @@
         <v>1</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12">
         <v>0.04</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1226,17 +1226,17 @@
         <v>1</v>
       </c>
       <c r="D13" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12">
         <v>0.08</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,17 +1244,17 @@
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12">
         <v>0.32</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1262,17 +1262,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1280,10 +1280,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="12">
         <v>0.02</v>
@@ -1292,7 +1292,7 @@
         <v>0.04</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1300,10 +1300,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="F17" s="11">
         <v>0.02</v>
@@ -1312,7 +1312,7 @@
         <v>0.04</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1320,10 +1320,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="F18" s="11">
         <v>0.02</v>
@@ -1332,7 +1332,7 @@
         <v>0.16</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1340,17 +1340,17 @@
         <v>1</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="30">
         <v>0.08</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1360,7 +1360,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="34"/>
@@ -1376,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1384,17 +1384,17 @@
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="50" t="s">
         <v>64</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>65</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="13">
         <v>2</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -1410,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1418,17 +1418,17 @@
         <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="13">
         <v>1</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11">
@@ -1446,7 +1446,7 @@
         <v>1.8</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1454,17 +1454,17 @@
         <v>1</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10">
         <v>1.95</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1472,17 +1472,17 @@
         <v>1</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="46"/>
       <c r="G28" s="47">
         <v>5.8</v>
       </c>
       <c r="H28" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1490,17 +1490,17 @@
         <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="10">
         <v>4.57</v>
       </c>
       <c r="H29" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1508,24 +1508,24 @@
         <v>1</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="43">
         <v>2.0099999999999998</v>
       </c>
       <c r="H30" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="5:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="6">
         <f>SUM(G5:G32)</f>
